--- a/Assignment_3/ex_3/Question5_results.xlsx
+++ b/Assignment_3/ex_3/Question5_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/524aa8985597d0f1/NUS/Academic/Sem 5/DD2360/Labs/Assignment_3/ex_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A2393BC-5CD3-7B4B-AB79-81F88AC12FF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{1A2393BC-5CD3-7B4B-AB79-81F88AC12FF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{03F4D955-7E30-AD48-9C31-063F4BDB64A9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{E8C4A922-7A1A-0343-8567-852A2E413B6B}"/>
   </bookViews>
@@ -16,26 +16,29 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$2:$A$8</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$2:$B$8</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$2:$C$8</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$D$2:$D$8</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$E$2:$E$8</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$A$2:$A$8</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$B$2:$B$8</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$C$2:$C$8</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$D$2:$D$8</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$E$2:$E$8</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$F$2:$F$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$G$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$F$2:$F$8</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$G$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$G$2:$G$8</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$H$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$G$2:$G$8</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$H$2:$H$8</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$I$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$I$2:$I$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$H$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$H$2:$H$8</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$I$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$I$2:$I$8</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$G$2:$G$8</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$H$1</definedName>
+    <definedName name="_xlchart.v2.12" hidden="1">Sheet1!$H$2:$H$8</definedName>
+    <definedName name="_xlchart.v2.13" hidden="1">Sheet1!$I$1</definedName>
+    <definedName name="_xlchart.v2.14" hidden="1">Sheet1!$I$2:$I$8</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$F$2:$F$8</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$G$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -53,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Matrix size</t>
   </si>
@@ -137,6 +140,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1300"/>
+              <a:t>Comparison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1300" baseline="0"/>
+              <a:t> of Different sGEMM Implementations</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1300"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -174,15 +207,195 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CPU</c:v>
+                  <c:v>cuBLAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-3.1517051446064981E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31597034545691771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5158738437116791</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2629254693318317</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1307839145889562</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0220074831901491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9194672132955559</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F06-BF41-931F-491580637B21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SharedMem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.36653154442041358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29003461136251807</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1595671932336202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0556840649194132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9575977104499467</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8603439967983979</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7674837274268747</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7F06-BF41-931F-491580637B21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>globalMem</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -197,115 +410,77 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.329</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.420999999999999</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.915999999999997</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>638.495</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4019.96</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31066.425999999999</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>247864.30499999999</c:v>
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.56584781867351763</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4247183373315671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3211010991978225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2219460206863495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1233344247093582</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.031418362013075</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9375252438686354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9B54-3B4B-92FE-6DC6379FC70C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>cuBLAS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>9.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.20699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.32800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8320000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.513999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>105.19799999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>830.74400000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9B54-3B4B-92FE-6DC6379FC70C}"/>
+              <c16:uniqueId val="{00000001-7F06-BF41-931F-491580637B21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>globalMem</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>CPU</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -317,99 +492,69 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.36799999999999999</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6589999999999998</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.946000000000002</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>166.70400000000001</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1328.4169999999999</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10750.245000000001</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>86601.466</c:v>
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.1235249809427319</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0179093958966892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9133687373287702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.805157500689627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6042217317248424</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4922912932369963</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3942139884148101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9B54-3B4B-92FE-6DC6379FC70C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SharedMem</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4.2999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.444</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.368</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90.697999999999993</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>725.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5854.4179999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9B54-3B4B-92FE-6DC6379FC70C}"/>
+              <c16:uniqueId val="{00000004-7F06-BF41-931F-491580637B21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -423,16 +568,71 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1064681759"/>
-        <c:axId val="1064683391"/>
+        <c:axId val="1099069327"/>
+        <c:axId val="1099312463"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1064681759"/>
+        <c:axId val="1099069327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Matrix size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -470,7 +670,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1064683391"/>
+        <c:crossAx val="1099312463"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -478,9 +678,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1064683391"/>
+        <c:axId val="1099312463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -498,6 +699,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>log(runtime ms) + 1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -529,7 +785,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1064681759"/>
+        <c:crossAx val="1099069327"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -542,7 +798,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1156,23 +1412,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>360017</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>86967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>807279</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>187830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D32BDFC-0D58-894D-AA1E-E39BAB9E430E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D82F85D2-BE04-E443-9EA6-B11DA97B6A54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,15 +1746,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E76BAD-9030-0348-A25E-BFAD3FFDC43E}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="A1:E8"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1514,8 +1770,20 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>64</v>
       </c>
@@ -1531,8 +1799,24 @@
       <c r="E2">
         <v>4.2999999999999997E-2</v>
       </c>
+      <c r="F2">
+        <f>LOG(B2)+1</f>
+        <v>1.1235249809427319</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:I2" si="0">LOG(C2)+1</f>
+        <v>-3.1517051446064981E-2</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>0.56584781867351763</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>-0.36653154442041358</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>128</v>
       </c>
@@ -1548,8 +1832,24 @@
       <c r="E3">
         <v>0.19500000000000001</v>
       </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F8" si="1">LOG(B3)+1</f>
+        <v>2.0179093958966892</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G8" si="2">LOG(C3)+1</f>
+        <v>0.31597034545691771</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H8" si="3">LOG(D3)+1</f>
+        <v>1.4247183373315671</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I8" si="4">LOG(E3)+1</f>
+        <v>0.29003461136251807</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>256</v>
       </c>
@@ -1565,8 +1865,24 @@
       <c r="E4">
         <v>1.444</v>
       </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>2.9133687373287702</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>0.5158738437116791</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>2.3211010991978225</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>1.1595671932336202</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>512</v>
       </c>
@@ -1582,8 +1898,24 @@
       <c r="E5">
         <v>11.368</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>3.805157500689627</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>1.2629254693318317</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>3.2219460206863495</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>2.0556840649194132</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1024</v>
       </c>
@@ -1599,8 +1931,24 @@
       <c r="E6">
         <v>90.697999999999993</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>4.6042217317248424</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>2.1307839145889562</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>4.1233344247093582</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>2.9575977104499467</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2048</v>
       </c>
@@ -1616,8 +1964,24 @@
       <c r="E7">
         <v>725.01</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>5.4922912932369963</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>3.0220074831901491</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>5.031418362013075</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>3.8603439967983979</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4096</v>
       </c>
@@ -1632,6 +1996,22 @@
       </c>
       <c r="E8">
         <v>5854.4179999999997</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>6.3942139884148101</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>3.9194672132955559</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>5.9375252438686354</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>4.7674837274268747</v>
       </c>
     </row>
   </sheetData>
